--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Sieve Bootstrap_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Sieve Bootstrap_No_Lineal_Estacionario_SETAR.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.6234748572111255</v>
+        <v>0.7422951078380673</v>
       </c>
       <c r="D2">
-        <v>0.9014915018520941</v>
+        <v>0.9136280624895987</v>
       </c>
       <c r="E2">
-        <v>0.6735176788687589</v>
+        <v>0.6728620539146042</v>
       </c>
       <c r="F2">
-        <v>0.9349486063522507</v>
+        <v>0.9444989496619038</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6234748572111255</v>
+        <v>0.7422951078380673</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.7474281817843695</v>
+        <v>0.7722778098247107</v>
       </c>
       <c r="E3">
-        <v>0.911287726802843</v>
+        <v>0.9238677021352635</v>
       </c>
       <c r="F3">
-        <v>0.6367803945083159</v>
+        <v>0.6721377686743928</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9014915018520941</v>
+        <v>0.9136280624895987</v>
       </c>
       <c r="C4">
-        <v>0.7474281817843695</v>
+        <v>0.7722778098247107</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.7841503094780706</v>
+        <v>0.717555800023336</v>
       </c>
       <c r="F4">
-        <v>0.9303739546735876</v>
+        <v>0.9340578331011695</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6735176788687589</v>
+        <v>0.6728620539146042</v>
       </c>
       <c r="C5">
-        <v>0.911287726802843</v>
+        <v>0.9238677021352635</v>
       </c>
       <c r="D5">
-        <v>0.7841503094780706</v>
+        <v>0.717555800023336</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.7090139956027548</v>
+        <v>0.6976947698769416</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9349486063522507</v>
+        <v>0.9444989496619038</v>
       </c>
       <c r="C6">
-        <v>0.6367803945083159</v>
+        <v>0.6721377686743928</v>
       </c>
       <c r="D6">
-        <v>0.9303739546735876</v>
+        <v>0.9340578331011695</v>
       </c>
       <c r="E6">
-        <v>0.7090139956027548</v>
+        <v>0.6976947698769416</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.491249696919673</v>
+        <v>0.3354016704513273</v>
       </c>
       <c r="D2">
-        <v>0.1238430409270239</v>
+        <v>0.1104399346997865</v>
       </c>
       <c r="E2">
-        <v>0.4215841827752956</v>
+        <v>0.4312373321681822</v>
       </c>
       <c r="F2">
-        <v>0.08166325968841387</v>
+        <v>0.07087600677957812</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.491249696919673</v>
+        <v>-0.3354016704513273</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.3222179314009259</v>
+        <v>-0.2950608527102469</v>
       </c>
       <c r="E3">
-        <v>-0.11147330611884</v>
+        <v>-0.09729961963251321</v>
       </c>
       <c r="F3">
-        <v>-0.472506660706637</v>
+        <v>-0.4322578037199336</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.1238430409270239</v>
+        <v>-0.1104399346997865</v>
       </c>
       <c r="C4">
-        <v>0.3222179314009259</v>
+        <v>0.2950608527102469</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2740682648243704</v>
+        <v>0.3691271500125996</v>
       </c>
       <c r="F4">
-        <v>-0.08742031606150517</v>
+        <v>-0.08424067640261293</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.4215841827752956</v>
+        <v>-0.4312373321681822</v>
       </c>
       <c r="C5">
-        <v>0.11147330611884</v>
+        <v>0.09729961963251321</v>
       </c>
       <c r="D5">
-        <v>-0.2740682648243704</v>
+        <v>-0.3691271500125996</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.3734026368066937</v>
+        <v>-0.3965266435774599</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.08166325968841387</v>
+        <v>-0.07087600677957812</v>
       </c>
       <c r="C6">
-        <v>0.472506660706637</v>
+        <v>0.4322578037199336</v>
       </c>
       <c r="D6">
-        <v>0.08742031606150517</v>
+        <v>0.08424067640261293</v>
       </c>
       <c r="E6">
-        <v>0.3734026368066937</v>
+        <v>0.3965266435774599</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Sieve Bootstrap_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Sieve Bootstrap_No_Lineal_Estacionario_SETAR.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.7422951078380673</v>
+        <v>0.8681184156566304</v>
       </c>
       <c r="D2">
-        <v>0.9136280624895987</v>
+        <v>0.3935653441713671</v>
       </c>
       <c r="E2">
-        <v>0.6728620539146042</v>
+        <v>0.3562031502776359</v>
       </c>
       <c r="F2">
-        <v>0.9444989496619038</v>
+        <v>0.5685638919020346</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7422951078380673</v>
+        <v>0.8681184156566304</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.7722778098247107</v>
+        <v>0.1578485635722027</v>
       </c>
       <c r="E3">
-        <v>0.9238677021352635</v>
+        <v>0.4083101060110785</v>
       </c>
       <c r="F3">
-        <v>0.6721377686743928</v>
+        <v>0.6508097319506261</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9136280624895987</v>
+        <v>0.3935653441713671</v>
       </c>
       <c r="C4">
-        <v>0.7722778098247107</v>
+        <v>0.1578485635722027</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.717555800023336</v>
+        <v>0.835720526589524</v>
       </c>
       <c r="F4">
-        <v>0.9340578331011695</v>
+        <v>0.2069035894745999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6728620539146042</v>
+        <v>0.3562031502776359</v>
       </c>
       <c r="C5">
-        <v>0.9238677021352635</v>
+        <v>0.4083101060110785</v>
       </c>
       <c r="D5">
-        <v>0.717555800023336</v>
+        <v>0.835720526589524</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6976947698769416</v>
+        <v>0.1600593564474235</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9444989496619038</v>
+        <v>0.5685638919020346</v>
       </c>
       <c r="C6">
-        <v>0.6721377686743928</v>
+        <v>0.6508097319506261</v>
       </c>
       <c r="D6">
-        <v>0.9340578331011695</v>
+        <v>0.2069035894745999</v>
       </c>
       <c r="E6">
-        <v>0.6976947698769416</v>
+        <v>0.1600593564474235</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3354016704513273</v>
+        <v>0.1679996284622707</v>
       </c>
       <c r="D2">
-        <v>0.1104399346997865</v>
+        <v>-0.8702409371685718</v>
       </c>
       <c r="E2">
-        <v>0.4312373321681822</v>
+        <v>-0.9424384155598653</v>
       </c>
       <c r="F2">
-        <v>0.07087600677957812</v>
+        <v>0.5788593749020973</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.3354016704513273</v>
+        <v>-0.1679996284622707</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.2950608527102469</v>
+        <v>-1.462115245576371</v>
       </c>
       <c r="E3">
-        <v>-0.09729961963251321</v>
+        <v>-0.8429826971431075</v>
       </c>
       <c r="F3">
-        <v>-0.4322578037199336</v>
+        <v>0.4588970154001075</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.1104399346997865</v>
+        <v>0.8702409371685718</v>
       </c>
       <c r="C4">
-        <v>0.2950608527102469</v>
+        <v>1.462115245576371</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3691271500125996</v>
+        <v>0.2098440797674939</v>
       </c>
       <c r="F4">
-        <v>-0.08424067640261293</v>
+        <v>1.30045575927587</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.4312373321681822</v>
+        <v>0.9424384155598653</v>
       </c>
       <c r="C5">
-        <v>0.09729961963251321</v>
+        <v>0.8429826971431075</v>
       </c>
       <c r="D5">
-        <v>-0.3691271500125996</v>
+        <v>-0.2098440797674939</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.3965266435774599</v>
+        <v>1.454019584177239</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.07087600677957812</v>
+        <v>-0.5788593749020973</v>
       </c>
       <c r="C6">
-        <v>0.4322578037199336</v>
+        <v>-0.4588970154001075</v>
       </c>
       <c r="D6">
-        <v>0.08424067640261293</v>
+        <v>-1.30045575927587</v>
       </c>
       <c r="E6">
-        <v>0.3965266435774599</v>
+        <v>-1.454019584177239</v>
       </c>
       <c r="F6">
         <v>0</v>
